--- a/biology/Médecine/Hôpital_Porte-Madeleine/Hôpital_Porte-Madeleine.xlsx
+++ b/biology/Médecine/Hôpital_Porte-Madeleine/Hôpital_Porte-Madeleine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Porte-Madeleine</t>
+          <t>Hôpital_Porte-Madeleine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hôpital Porte-Madeleine est un ancien hôpital français se situant à Orléans (Loiret).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Porte-Madeleine</t>
+          <t>Hôpital_Porte-Madeleine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des incertitudes subsistent sur la création du premier hôpital d'Orléans. Une thèse la fait remonter au début du IXe siècle, à l'initiative de Théodulf, que Charlemagne avait nommé évêque d'Orléans en 798[2],[3].
-L'histoire de l'Hôtel-Dieu qui lui succéda est mieux connue : créé en 1150 près de l'angle nord-ouest de la cathédrale Sainte-Croix, et remanié à plusieurs reprises, il reste en fonction jusqu'en 1844, et est démoli peu après, suscitant l'indignation de Prosper Mérimée et Charles de Montalembert, fervents défenseurs du patrimoine[4],[5].
-Des hospices de moindre importance, appelés aumônes, ont également été créés en divers points de la ville, soit pour les malades, comme la Maladrerie destinée à accueillir les lépreux, ou l'Hospice Saint-Mathurin pour les aveugles, soit pour les passants et pèlerins, comme l'Aumône Saint-Antoine, bâtie dans le lit de la Loire au milieu du vieux pont d'Orléans ; la plupart de ces aumônes sont regroupées en Aumône Générale sous Henri II. Lors d'une épidémie de peste, deux lieux d'accueil pour les pestiférés sont créés : d'abord le Petit Sanitas en 1583, puis le Grand Sanitas en 1586[6],[3].
-L'hôpital Porte-Madeleine regroupe les bâtiments de l'hôpital général datant du dernier quart du XVIIe siècle, ceux du nouvel Hôtel-Dieu édifié à partir de 1844, ainsi que diverses extensions plus récentes[3],[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des incertitudes subsistent sur la création du premier hôpital d'Orléans. Une thèse la fait remonter au début du IXe siècle, à l'initiative de Théodulf, que Charlemagne avait nommé évêque d'Orléans en 798,.
+L'histoire de l'Hôtel-Dieu qui lui succéda est mieux connue : créé en 1150 près de l'angle nord-ouest de la cathédrale Sainte-Croix, et remanié à plusieurs reprises, il reste en fonction jusqu'en 1844, et est démoli peu après, suscitant l'indignation de Prosper Mérimée et Charles de Montalembert, fervents défenseurs du patrimoine,.
+Des hospices de moindre importance, appelés aumônes, ont également été créés en divers points de la ville, soit pour les malades, comme la Maladrerie destinée à accueillir les lépreux, ou l'Hospice Saint-Mathurin pour les aveugles, soit pour les passants et pèlerins, comme l'Aumône Saint-Antoine, bâtie dans le lit de la Loire au milieu du vieux pont d'Orléans ; la plupart de ces aumônes sont regroupées en Aumône Générale sous Henri II. Lors d'une épidémie de peste, deux lieux d'accueil pour les pestiférés sont créés : d'abord le Petit Sanitas en 1583, puis le Grand Sanitas en 1586,.
+L'hôpital Porte-Madeleine regroupe les bâtiments de l'hôpital général datant du dernier quart du XVIIe siècle, ceux du nouvel Hôtel-Dieu édifié à partir de 1844, ainsi que diverses extensions plus récentes,. 
 Les services de l'hôpital Porte-Madeleine ont été transférés au nouvel hôpital d'Orléans, lors de son ouverture en 2015.
-Durant l'hiver 2017, un centre d'hébergement hivernal s'installa provisoirement dans le site de l'ancien hôpital[8].
-Depuis le 4 janvier 2021, l'ancien hôpital abrite une nouvelle maison de santé[9].
+Durant l'hiver 2017, un centre d'hébergement hivernal s'installa provisoirement dans le site de l'ancien hôpital.
+Depuis le 4 janvier 2021, l'ancien hôpital abrite une nouvelle maison de santé.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Porte-Madeleine</t>
+          <t>Hôpital_Porte-Madeleine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Services
-L'hôpital a géré un service de maternité de mai 1986 à juin 2015[10], ainsi qu'un service d'urgence pédiatrique. Depuis, elle accueille une maison de Santé.
-Chapelle
-La chapelle Saint-Charles est réalisée entre 1713 et 1717 selon les plans de l'architecte Jacques V Gabriel puis achevée selon les plans de Thuillier en 1864[1].
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital a géré un service de maternité de mai 1986 à juin 2015, ainsi qu'un service d'urgence pédiatrique. Depuis, elle accueille une maison de Santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_Porte-Madeleine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Porte-Madeleine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chapelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chapelle Saint-Charles est réalisée entre 1713 et 1717 selon les plans de l'architecte Jacques V Gabriel puis achevée selon les plans de Thuillier en 1864.
 </t>
         </is>
       </c>
